--- a/taxonomy_pipeline/test_data/bayes_idtax_lca_pr2_mapped.xlsx
+++ b/taxonomy_pipeline/test_data/bayes_idtax_lca_pr2_mapped.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thecomplexgeek/Desktop/Taxonomic Sequencing/amplicon_bioinformatics/taxonomy_pipeline/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B5CCB0-537A-1A41-9784-CC6127BD4137}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F9DA96-C7D2-8A46-B3C2-544CA5C2C347}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="700" windowWidth="28040" windowHeight="17300" xr2:uid="{EDC9F8DD-534D-7544-B7B8-44B7608BA464}"/>
+    <workbookView xWindow="1600" yWindow="2880" windowWidth="25420" windowHeight="12920" xr2:uid="{EDC9F8DD-534D-7544-B7B8-44B7608BA464}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="222">
   <si>
     <t>Bayes</t>
   </si>
@@ -685,6 +685,18 @@
   </si>
   <si>
     <t>RESULT</t>
+  </si>
+  <si>
+    <t>NA (Eukaryota if no NA as name)</t>
+  </si>
+  <si>
+    <t>ties -&gt; grab the one that user defined</t>
+  </si>
+  <si>
+    <t>make sure the table name lines up with the table name</t>
+  </si>
+  <si>
+    <t>automatic tie breaker -&gt; NA</t>
   </si>
 </sst>
 </file>
@@ -1036,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83AF2A6-2E24-F146-8FBC-B9849A546C26}">
-  <dimension ref="A2:L191"/>
+  <dimension ref="A2:M191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P185" sqref="P185"/>
+    <sheetView tabSelected="1" topLeftCell="B51" zoomScale="138" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1787,7 +1799,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -1822,7 +1834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>22</v>
       </c>
@@ -1851,7 +1863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>22</v>
       </c>
@@ -1880,7 +1892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>22</v>
       </c>
@@ -1909,7 +1921,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1944,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>22</v>
       </c>
@@ -1973,7 +1985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
         <v>14</v>
       </c>
@@ -2002,7 +2014,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
+        <v>14</v>
+      </c>
       <c r="K41" t="s">
         <v>14</v>
       </c>
@@ -2010,7 +2043,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -2045,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>22</v>
       </c>
@@ -2074,7 +2107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>14</v>
       </c>
@@ -2103,7 +2136,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
       <c r="I46" t="s">
         <v>14</v>
       </c>
@@ -2117,7 +2165,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -2151,8 +2199,11 @@
       <c r="L48" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>22</v>
       </c>
@@ -2180,8 +2231,11 @@
       <c r="L49" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>22</v>
       </c>
@@ -2210,7 +2264,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" t="s">
+        <v>14</v>
+      </c>
       <c r="K51" t="s">
         <v>14</v>
       </c>
@@ -2218,7 +2293,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -2253,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>22</v>
       </c>
@@ -2282,7 +2357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>22</v>
       </c>
@@ -2311,7 +2386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
         <v>22</v>
       </c>
@@ -2340,7 +2415,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>92</v>
       </c>
@@ -2375,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>22</v>
       </c>
@@ -2404,7 +2479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D60" t="s">
         <v>14</v>
       </c>
@@ -2433,7 +2508,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
       <c r="J61" t="s">
         <v>14</v>
       </c>
@@ -2444,7 +2537,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>101</v>
       </c>
@@ -2478,8 +2571,11 @@
       <c r="L63" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M63" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D64" t="s">
         <v>22</v>
       </c>

--- a/taxonomy_pipeline/test_data/bayes_idtax_lca_pr2_mapped.xlsx
+++ b/taxonomy_pipeline/test_data/bayes_idtax_lca_pr2_mapped.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thecomplexgeek/Desktop/Taxonomic Sequencing/amplicon_bioinformatics/taxonomy_pipeline/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F9DA96-C7D2-8A46-B3C2-544CA5C2C347}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D667EB4-FC71-804B-A411-D34CC81CA5C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="2880" windowWidth="25420" windowHeight="12920" xr2:uid="{EDC9F8DD-534D-7544-B7B8-44B7608BA464}"/>
+    <workbookView xWindow="1640" yWindow="2100" windowWidth="25420" windowHeight="12920" xr2:uid="{EDC9F8DD-534D-7544-B7B8-44B7608BA464}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="222">
   <si>
     <t>Bayes</t>
   </si>
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83AF2A6-2E24-F146-8FBC-B9849A546C26}">
   <dimension ref="A2:M191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" zoomScale="138" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2634,6 +2634,21 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F66" t="s">
+        <v>85</v>
+      </c>
+      <c r="G66" t="s">
+        <v>86</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
       <c r="I66" t="s">
         <v>14</v>
       </c>
@@ -3104,6 +3119,27 @@
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D86" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" t="s">
+        <v>68</v>
+      </c>
+      <c r="F86" t="s">
+        <v>85</v>
+      </c>
+      <c r="G86" t="s">
+        <v>118</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" t="s">
+        <v>14</v>
+      </c>
       <c r="K86" t="s">
         <v>14</v>
       </c>
@@ -3205,6 +3241,9 @@
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
       <c r="E91" t="s">
         <v>14</v>
       </c>
@@ -3934,6 +3973,27 @@
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D121" t="s">
+        <v>22</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+      <c r="J121" t="s">
+        <v>14</v>
+      </c>
       <c r="K121" t="s">
         <v>14</v>
       </c>
@@ -4157,6 +4217,24 @@
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>22</v>
+      </c>
+      <c r="E131" t="s">
+        <v>43</v>
+      </c>
+      <c r="F131" t="s">
+        <v>44</v>
+      </c>
+      <c r="G131" t="s">
+        <v>129</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
       <c r="J131" t="s">
         <v>14</v>
       </c>
@@ -4261,6 +4339,18 @@
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
+        <v>22</v>
+      </c>
+      <c r="E136" t="s">
+        <v>43</v>
+      </c>
+      <c r="F136" t="s">
+        <v>44</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
       <c r="H136" t="s">
         <v>14</v>
       </c>
@@ -4371,6 +4461,24 @@
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D141" t="s">
+        <v>22</v>
+      </c>
+      <c r="E141" t="s">
+        <v>43</v>
+      </c>
+      <c r="F141" t="s">
+        <v>44</v>
+      </c>
+      <c r="G141" t="s">
+        <v>129</v>
+      </c>
+      <c r="H141" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>14</v>
+      </c>
       <c r="J141" t="s">
         <v>14</v>
       </c>
@@ -4475,6 +4583,15 @@
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>22</v>
+      </c>
+      <c r="E146" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
       <c r="G146" t="s">
         <v>14</v>
       </c>
@@ -4588,6 +4705,24 @@
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D151" t="s">
+        <v>22</v>
+      </c>
+      <c r="E151" t="s">
+        <v>43</v>
+      </c>
+      <c r="F151" t="s">
+        <v>56</v>
+      </c>
+      <c r="G151" t="s">
+        <v>165</v>
+      </c>
+      <c r="H151" t="s">
+        <v>173</v>
+      </c>
+      <c r="I151" t="s">
+        <v>14</v>
+      </c>
       <c r="J151" t="s">
         <v>14</v>
       </c>
@@ -4814,6 +4949,21 @@
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D161" t="s">
+        <v>22</v>
+      </c>
+      <c r="E161" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" t="s">
+        <v>14</v>
+      </c>
+      <c r="G161" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" t="s">
+        <v>14</v>
+      </c>
       <c r="I161" t="s">
         <v>14</v>
       </c>
@@ -4921,6 +5071,27 @@
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D166" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" t="s">
+        <v>43</v>
+      </c>
+      <c r="F166" t="s">
+        <v>56</v>
+      </c>
+      <c r="G166" t="s">
+        <v>165</v>
+      </c>
+      <c r="H166" t="s">
+        <v>173</v>
+      </c>
+      <c r="I166" t="s">
+        <v>182</v>
+      </c>
+      <c r="J166" t="s">
+        <v>14</v>
+      </c>
       <c r="K166" t="s">
         <v>14</v>
       </c>
@@ -5022,6 +5193,27 @@
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D171" t="s">
+        <v>22</v>
+      </c>
+      <c r="E171" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" t="s">
+        <v>14</v>
+      </c>
+      <c r="G171" t="s">
+        <v>14</v>
+      </c>
+      <c r="H171" t="s">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>14</v>
+      </c>
+      <c r="J171" t="s">
+        <v>14</v>
+      </c>
       <c r="K171" t="s">
         <v>14</v>
       </c>
@@ -5367,6 +5559,30 @@
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D186" t="s">
+        <v>22</v>
+      </c>
+      <c r="E186" t="s">
+        <v>43</v>
+      </c>
+      <c r="F186" t="s">
+        <v>56</v>
+      </c>
+      <c r="G186" t="s">
+        <v>165</v>
+      </c>
+      <c r="H186" t="s">
+        <v>173</v>
+      </c>
+      <c r="I186" t="s">
+        <v>182</v>
+      </c>
+      <c r="J186" t="s">
+        <v>14</v>
+      </c>
+      <c r="K186" t="s">
+        <v>14</v>
+      </c>
       <c r="L186" t="s">
         <v>217</v>
       </c>
@@ -5465,6 +5681,27 @@
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D191" t="s">
+        <v>22</v>
+      </c>
+      <c r="E191" t="s">
+        <v>43</v>
+      </c>
+      <c r="F191" t="s">
+        <v>56</v>
+      </c>
+      <c r="G191" t="s">
+        <v>165</v>
+      </c>
+      <c r="H191" t="s">
+        <v>173</v>
+      </c>
+      <c r="I191" t="s">
+        <v>182</v>
+      </c>
+      <c r="J191" t="s">
+        <v>14</v>
+      </c>
       <c r="K191" t="s">
         <v>14</v>
       </c>

--- a/taxonomy_pipeline/test_data/bayes_idtax_lca_pr2_mapped.xlsx
+++ b/taxonomy_pipeline/test_data/bayes_idtax_lca_pr2_mapped.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thecomplexgeek/Desktop/Taxonomic Sequencing/amplicon_bioinformatics/taxonomy_pipeline/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D667EB4-FC71-804B-A411-D34CC81CA5C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3314204-E638-134C-93EE-C12A2B7AC847}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="2100" windowWidth="25420" windowHeight="12920" xr2:uid="{EDC9F8DD-534D-7544-B7B8-44B7608BA464}"/>
+    <workbookView xWindow="3920" yWindow="2580" windowWidth="25420" windowHeight="12920" xr2:uid="{EDC9F8DD-534D-7544-B7B8-44B7608BA464}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="218">
   <si>
     <t>Bayes</t>
   </si>
@@ -685,18 +685,6 @@
   </si>
   <si>
     <t>RESULT</t>
-  </si>
-  <si>
-    <t>NA (Eukaryota if no NA as name)</t>
-  </si>
-  <si>
-    <t>ties -&gt; grab the one that user defined</t>
-  </si>
-  <si>
-    <t>make sure the table name lines up with the table name</t>
-  </si>
-  <si>
-    <t>automatic tie breaker -&gt; NA</t>
   </si>
 </sst>
 </file>
@@ -1048,53 +1036,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83AF2A6-2E24-F146-8FBC-B9849A546C26}">
-  <dimension ref="A2:M191"/>
+  <dimension ref="A1:L190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="F195" sqref="F195"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="116" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
@@ -1120,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1149,7 +1166,7 @@
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1178,45 +1195,45 @@
         <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
@@ -1242,7 +1259,7 @@
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1271,7 +1288,7 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1300,45 +1317,45 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
@@ -1364,7 +1381,7 @@
         <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1372,28 +1389,28 @@
         <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K14" t="s">
         <v>14</v>
       </c>
       <c r="L14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1401,121 +1418,121 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K15" t="s">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
         <v>23</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>24</v>
       </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" t="s">
-        <v>217</v>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
         <v>14</v>
       </c>
       <c r="L18" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="K19" t="s">
         <v>14</v>
       </c>
       <c r="L19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1544,35 +1561,56 @@
         <v>14</v>
       </c>
       <c r="L20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
@@ -1587,21 +1625,21 @@
         <v>14</v>
       </c>
       <c r="L23" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
@@ -1616,12 +1654,12 @@
         <v>14</v>
       </c>
       <c r="L24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -1645,45 +1683,45 @@
         <v>14</v>
       </c>
       <c r="L25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
@@ -1709,7 +1747,7 @@
         <v>14</v>
       </c>
       <c r="L28" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1738,7 +1776,7 @@
         <v>14</v>
       </c>
       <c r="L29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1767,45 +1805,45 @@
         <v>14</v>
       </c>
       <c r="L30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
         <v>44</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G32" t="s">
         <v>48</v>
       </c>
-      <c r="H31" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
+      <c r="H32" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>22</v>
       </c>
@@ -1831,10 +1869,10 @@
         <v>14</v>
       </c>
       <c r="L33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>22</v>
       </c>
@@ -1860,10 +1898,10 @@
         <v>14</v>
       </c>
       <c r="L34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>22</v>
       </c>
@@ -1889,289 +1927,289 @@
         <v>14</v>
       </c>
       <c r="L35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+      <c r="K38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" t="s">
-        <v>48</v>
-      </c>
-      <c r="H36" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" t="s">
-        <v>53</v>
-      </c>
-      <c r="K36" t="s">
-        <v>14</v>
-      </c>
-      <c r="L36" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" t="s">
-        <v>57</v>
-      </c>
-      <c r="H38" t="s">
-        <v>58</v>
-      </c>
-      <c r="I38" t="s">
-        <v>59</v>
-      </c>
-      <c r="J38" t="s">
-        <v>60</v>
-      </c>
-      <c r="K38" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" t="s">
-        <v>63</v>
-      </c>
-      <c r="I39" t="s">
-        <v>64</v>
-      </c>
-      <c r="J39" t="s">
-        <v>65</v>
-      </c>
-      <c r="K39" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" t="s">
+        <v>74</v>
+      </c>
+      <c r="H43" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43" t="s">
+        <v>76</v>
+      </c>
+      <c r="J43" t="s">
+        <v>77</v>
+      </c>
+      <c r="K43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D41" t="s">
-        <v>218</v>
-      </c>
-      <c r="E41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
         <v>68</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F47" t="s">
         <v>69</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G47" t="s">
         <v>70</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H47" t="s">
         <v>71</v>
       </c>
-      <c r="I43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" t="s">
+      <c r="I47" t="s">
+        <v>80</v>
+      </c>
+      <c r="J47" t="s">
+        <v>81</v>
+      </c>
+      <c r="K47" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" t="s">
-        <v>73</v>
-      </c>
-      <c r="G44" t="s">
-        <v>74</v>
-      </c>
-      <c r="H44" t="s">
-        <v>75</v>
-      </c>
-      <c r="I44" t="s">
-        <v>76</v>
-      </c>
-      <c r="J44" t="s">
-        <v>77</v>
-      </c>
-      <c r="K44" t="s">
-        <v>14</v>
-      </c>
-      <c r="L44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D45" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45" t="s">
-        <v>14</v>
-      </c>
-      <c r="L45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" t="s">
-        <v>14</v>
-      </c>
-      <c r="K46" t="s">
-        <v>14</v>
-      </c>
-      <c r="L46" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" t="s">
-        <v>79</v>
-      </c>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>22</v>
       </c>
@@ -2185,25 +2223,22 @@
         <v>70</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J48" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K48" t="s">
         <v>14</v>
       </c>
       <c r="L48" t="s">
-        <v>0</v>
-      </c>
-      <c r="M48" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>22</v>
       </c>
@@ -2211,31 +2246,28 @@
         <v>68</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="K49" t="s">
         <v>14</v>
       </c>
       <c r="L49" t="s">
-        <v>15</v>
-      </c>
-      <c r="M49" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>22</v>
       </c>
@@ -2243,10 +2275,10 @@
         <v>68</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="G50" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="H50" t="s">
         <v>14</v>
@@ -2261,45 +2293,45 @@
         <v>14</v>
       </c>
       <c r="L50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" t="s">
         <v>68</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F52" t="s">
         <v>69</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G52" t="s">
         <v>70</v>
       </c>
-      <c r="H51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" t="s">
-        <v>14</v>
-      </c>
-      <c r="K51" t="s">
-        <v>14</v>
-      </c>
-      <c r="L51" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" t="s">
-        <v>88</v>
-      </c>
+      <c r="H52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I52" t="s">
+        <v>90</v>
+      </c>
+      <c r="J52" t="s">
+        <v>91</v>
+      </c>
+      <c r="K52" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
         <v>22</v>
       </c>
@@ -2307,28 +2339,28 @@
         <v>68</v>
       </c>
       <c r="F53" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="K53" t="s">
         <v>14</v>
       </c>
       <c r="L53" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>22</v>
       </c>
@@ -2354,10 +2386,10 @@
         <v>14</v>
       </c>
       <c r="L54" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>22</v>
       </c>
@@ -2383,225 +2415,222 @@
         <v>14</v>
       </c>
       <c r="L55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" t="s">
+        <v>94</v>
+      </c>
+      <c r="H57" t="s">
+        <v>95</v>
+      </c>
+      <c r="I57" t="s">
+        <v>96</v>
+      </c>
+      <c r="J57" t="s">
+        <v>97</v>
+      </c>
+      <c r="K57" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>44</v>
+      </c>
+      <c r="G58" t="s">
+        <v>98</v>
+      </c>
+      <c r="H58" t="s">
+        <v>99</v>
+      </c>
+      <c r="I58" t="s">
+        <v>100</v>
+      </c>
+      <c r="J58" t="s">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" t="s">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" t="s">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" t="s">
         <v>68</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F62" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" t="s">
+        <v>94</v>
+      </c>
+      <c r="H62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" t="s">
+        <v>61</v>
+      </c>
+      <c r="G63" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" t="s">
+        <v>63</v>
+      </c>
+      <c r="I63" t="s">
+        <v>64</v>
+      </c>
+      <c r="J63" t="s">
+        <v>103</v>
+      </c>
+      <c r="K63" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" t="s">
         <v>85</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G64" t="s">
         <v>86</v>
       </c>
-      <c r="H56" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" t="s">
-        <v>14</v>
-      </c>
-      <c r="L56" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" t="s">
-        <v>68</v>
-      </c>
-      <c r="F58" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" t="s">
-        <v>94</v>
-      </c>
-      <c r="H58" t="s">
-        <v>95</v>
-      </c>
-      <c r="I58" t="s">
-        <v>96</v>
-      </c>
-      <c r="J58" t="s">
-        <v>97</v>
-      </c>
-      <c r="K58" t="s">
-        <v>14</v>
-      </c>
-      <c r="L58" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D59" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" t="s">
-        <v>43</v>
-      </c>
-      <c r="F59" t="s">
-        <v>44</v>
-      </c>
-      <c r="G59" t="s">
-        <v>98</v>
-      </c>
-      <c r="H59" t="s">
-        <v>99</v>
-      </c>
-      <c r="I59" t="s">
-        <v>100</v>
-      </c>
-      <c r="J59" t="s">
-        <v>14</v>
-      </c>
-      <c r="K59" t="s">
-        <v>14</v>
-      </c>
-      <c r="L59" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" t="s">
-        <v>14</v>
-      </c>
-      <c r="K60" t="s">
-        <v>14</v>
-      </c>
-      <c r="L60" t="s">
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D61" t="s">
-        <v>22</v>
-      </c>
-      <c r="E61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" t="s">
-        <v>14</v>
-      </c>
-      <c r="L61" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>101</v>
-      </c>
-      <c r="B63" t="s">
-        <v>102</v>
-      </c>
-      <c r="D63" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" t="s">
-        <v>68</v>
-      </c>
-      <c r="F63" t="s">
-        <v>69</v>
-      </c>
-      <c r="G63" t="s">
-        <v>94</v>
-      </c>
-      <c r="H63" t="s">
-        <v>95</v>
-      </c>
-      <c r="I63" t="s">
-        <v>14</v>
-      </c>
-      <c r="J63" t="s">
-        <v>14</v>
-      </c>
-      <c r="K63" t="s">
-        <v>14</v>
-      </c>
-      <c r="L63" t="s">
-        <v>0</v>
-      </c>
-      <c r="M63" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D64" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" t="s">
-        <v>35</v>
-      </c>
-      <c r="F64" t="s">
-        <v>61</v>
-      </c>
-      <c r="G64" t="s">
-        <v>62</v>
-      </c>
-      <c r="H64" t="s">
-        <v>63</v>
-      </c>
-      <c r="I64" t="s">
-        <v>64</v>
-      </c>
-      <c r="J64" t="s">
-        <v>103</v>
-      </c>
-      <c r="K64" t="s">
-        <v>14</v>
-      </c>
-      <c r="L64" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2630,45 +2659,45 @@
         <v>14</v>
       </c>
       <c r="L65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D66" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" t="s">
-        <v>68</v>
-      </c>
-      <c r="F66" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" t="s">
-        <v>86</v>
-      </c>
-      <c r="H66" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" t="s">
-        <v>14</v>
-      </c>
-      <c r="J66" t="s">
-        <v>14</v>
-      </c>
-      <c r="K66" t="s">
-        <v>14</v>
-      </c>
-      <c r="L66" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" t="s">
+        <v>105</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" t="s">
+        <v>61</v>
+      </c>
+      <c r="G67" t="s">
+        <v>62</v>
+      </c>
+      <c r="H67" t="s">
+        <v>63</v>
+      </c>
+      <c r="I67" t="s">
+        <v>64</v>
+      </c>
+      <c r="J67" t="s">
+        <v>106</v>
+      </c>
+      <c r="K67" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>104</v>
-      </c>
-      <c r="B68" t="s">
-        <v>105</v>
-      </c>
       <c r="D68" t="s">
         <v>22</v>
       </c>
@@ -2694,7 +2723,7 @@
         <v>14</v>
       </c>
       <c r="L68" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2711,19 +2740,19 @@
         <v>62</v>
       </c>
       <c r="H69" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="K69" t="s">
         <v>14</v>
       </c>
       <c r="L69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2740,57 +2769,57 @@
         <v>62</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="I70" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="J70" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="K70" t="s">
         <v>14</v>
       </c>
       <c r="L70" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D71" t="s">
-        <v>22</v>
-      </c>
-      <c r="E71" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" t="s">
-        <v>61</v>
-      </c>
-      <c r="G71" t="s">
-        <v>62</v>
-      </c>
-      <c r="H71" t="s">
-        <v>63</v>
-      </c>
-      <c r="I71" t="s">
-        <v>64</v>
-      </c>
-      <c r="J71" t="s">
-        <v>106</v>
-      </c>
-      <c r="K71" t="s">
-        <v>14</v>
-      </c>
-      <c r="L71" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" t="s">
+        <v>22</v>
+      </c>
+      <c r="E72" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" t="s">
+        <v>69</v>
+      </c>
+      <c r="G72" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72" t="s">
+        <v>82</v>
+      </c>
+      <c r="I72" t="s">
+        <v>83</v>
+      </c>
+      <c r="J72" t="s">
+        <v>84</v>
+      </c>
+      <c r="K72" t="s">
+        <v>14</v>
+      </c>
+      <c r="L72" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>107</v>
-      </c>
-      <c r="B73" t="s">
-        <v>108</v>
-      </c>
       <c r="D73" t="s">
         <v>22</v>
       </c>
@@ -2816,7 +2845,7 @@
         <v>14</v>
       </c>
       <c r="L73" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -2827,25 +2856,25 @@
         <v>68</v>
       </c>
       <c r="F74" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="I74" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="K74" t="s">
         <v>14</v>
       </c>
       <c r="L74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -2856,60 +2885,60 @@
         <v>68</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="G75" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="I75" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="J75" t="s">
-        <v>14</v>
-      </c>
-      <c r="K75" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="L75" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D76" t="s">
-        <v>22</v>
-      </c>
-      <c r="E76" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" t="s">
+        <v>22</v>
+      </c>
+      <c r="E77" t="s">
         <v>68</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F77" t="s">
         <v>69</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G77" t="s">
         <v>70</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H77" t="s">
         <v>82</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I77" t="s">
         <v>83</v>
       </c>
-      <c r="J76" t="s">
-        <v>84</v>
-      </c>
-      <c r="L76" t="s">
-        <v>217</v>
+      <c r="J77" t="s">
+        <v>111</v>
+      </c>
+      <c r="K77" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>109</v>
-      </c>
-      <c r="B78" t="s">
-        <v>110</v>
-      </c>
       <c r="D78" t="s">
         <v>22</v>
       </c>
@@ -2935,103 +2964,103 @@
         <v>14</v>
       </c>
       <c r="L78" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="I79" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="K79" t="s">
         <v>14</v>
       </c>
       <c r="L79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E80" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="I80" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="J80" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="K80" t="s">
         <v>14</v>
       </c>
       <c r="L80" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D81" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" t="s">
+        <v>22</v>
+      </c>
+      <c r="E82" t="s">
         <v>68</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F82" t="s">
         <v>69</v>
       </c>
-      <c r="G81" t="s">
-        <v>70</v>
-      </c>
-      <c r="H81" t="s">
-        <v>82</v>
-      </c>
-      <c r="I81" t="s">
-        <v>83</v>
-      </c>
-      <c r="J81" t="s">
-        <v>111</v>
-      </c>
-      <c r="K81" t="s">
-        <v>14</v>
-      </c>
-      <c r="L81" t="s">
-        <v>217</v>
+      <c r="G82" t="s">
+        <v>114</v>
+      </c>
+      <c r="H82" t="s">
+        <v>115</v>
+      </c>
+      <c r="I82" t="s">
+        <v>116</v>
+      </c>
+      <c r="J82" t="s">
+        <v>117</v>
+      </c>
+      <c r="K82" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>112</v>
-      </c>
-      <c r="B83" t="s">
-        <v>113</v>
-      </c>
       <c r="D83" t="s">
         <v>22</v>
       </c>
@@ -3039,25 +3068,25 @@
         <v>68</v>
       </c>
       <c r="F83" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G83" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H83" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I83" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="J83" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K83" t="s">
         <v>14</v>
       </c>
       <c r="L83" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3074,19 +3103,19 @@
         <v>118</v>
       </c>
       <c r="H84" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="I84" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="K84" t="s">
         <v>14</v>
       </c>
       <c r="L84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3115,59 +3144,59 @@
         <v>14</v>
       </c>
       <c r="L85" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D86" t="s">
-        <v>22</v>
-      </c>
-      <c r="E86" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" t="s">
+        <v>123</v>
+      </c>
+      <c r="D87" t="s">
+        <v>22</v>
+      </c>
+      <c r="E87" t="s">
         <v>68</v>
       </c>
-      <c r="F86" t="s">
-        <v>85</v>
-      </c>
-      <c r="G86" t="s">
-        <v>118</v>
-      </c>
-      <c r="H86" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" t="s">
-        <v>14</v>
-      </c>
-      <c r="J86" t="s">
-        <v>14</v>
-      </c>
-      <c r="K86" t="s">
-        <v>14</v>
-      </c>
-      <c r="L86" t="s">
-        <v>217</v>
+      <c r="F87" t="s">
+        <v>69</v>
+      </c>
+      <c r="G87" t="s">
+        <v>114</v>
+      </c>
+      <c r="H87" t="s">
+        <v>124</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" t="s">
+        <v>14</v>
+      </c>
+      <c r="K87" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>122</v>
-      </c>
-      <c r="B88" t="s">
-        <v>123</v>
-      </c>
       <c r="D88" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="I88" t="s">
         <v>14</v>
@@ -3179,12 +3208,12 @@
         <v>14</v>
       </c>
       <c r="L88" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
@@ -3208,7 +3237,7 @@
         <v>14</v>
       </c>
       <c r="L89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3237,45 +3266,45 @@
         <v>14</v>
       </c>
       <c r="L90" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D91" t="s">
-        <v>14</v>
-      </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" t="s">
-        <v>14</v>
-      </c>
-      <c r="J91" t="s">
-        <v>14</v>
-      </c>
-      <c r="K91" t="s">
-        <v>14</v>
-      </c>
-      <c r="L91" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" t="s">
+        <v>126</v>
+      </c>
+      <c r="D92" t="s">
+        <v>22</v>
+      </c>
+      <c r="E92" t="s">
+        <v>68</v>
+      </c>
+      <c r="F92" t="s">
+        <v>69</v>
+      </c>
+      <c r="G92" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" t="s">
+        <v>14</v>
+      </c>
+      <c r="K92" t="s">
+        <v>14</v>
+      </c>
+      <c r="L92" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>125</v>
-      </c>
-      <c r="B93" t="s">
-        <v>126</v>
-      </c>
       <c r="D93" t="s">
         <v>22</v>
       </c>
@@ -3301,7 +3330,7 @@
         <v>14</v>
       </c>
       <c r="L93" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3309,10 +3338,10 @@
         <v>22</v>
       </c>
       <c r="E94" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="F94" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="G94" t="s">
         <v>14</v>
@@ -3330,7 +3359,7 @@
         <v>14</v>
       </c>
       <c r="L94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3338,10 +3367,10 @@
         <v>22</v>
       </c>
       <c r="E95" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="G95" t="s">
         <v>14</v>
@@ -3359,45 +3388,45 @@
         <v>14</v>
       </c>
       <c r="L95" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D96" t="s">
-        <v>22</v>
-      </c>
-      <c r="E96" t="s">
-        <v>68</v>
-      </c>
-      <c r="F96" t="s">
-        <v>69</v>
-      </c>
-      <c r="G96" t="s">
-        <v>14</v>
-      </c>
-      <c r="H96" t="s">
-        <v>14</v>
-      </c>
-      <c r="I96" t="s">
-        <v>14</v>
-      </c>
-      <c r="J96" t="s">
-        <v>14</v>
-      </c>
-      <c r="K96" t="s">
-        <v>14</v>
-      </c>
-      <c r="L96" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>127</v>
+      </c>
+      <c r="B97" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97" t="s">
+        <v>22</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>44</v>
+      </c>
+      <c r="G97" t="s">
+        <v>129</v>
+      </c>
+      <c r="H97" t="s">
+        <v>130</v>
+      </c>
+      <c r="I97" t="s">
+        <v>131</v>
+      </c>
+      <c r="J97" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L97" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>127</v>
-      </c>
-      <c r="B98" t="s">
-        <v>128</v>
-      </c>
       <c r="D98" t="s">
         <v>22</v>
       </c>
@@ -3423,7 +3452,7 @@
         <v>14</v>
       </c>
       <c r="L98" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3440,10 +3469,10 @@
         <v>129</v>
       </c>
       <c r="H99" t="s">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="I99" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="J99" t="s">
         <v>14</v>
@@ -3452,7 +3481,7 @@
         <v>14</v>
       </c>
       <c r="L99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3469,10 +3498,10 @@
         <v>129</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="I100" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="J100" t="s">
         <v>14</v>
@@ -3481,45 +3510,45 @@
         <v>14</v>
       </c>
       <c r="L100" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D101" t="s">
-        <v>22</v>
-      </c>
-      <c r="E101" t="s">
-        <v>43</v>
-      </c>
-      <c r="F101" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>132</v>
+      </c>
+      <c r="B102" t="s">
+        <v>133</v>
+      </c>
+      <c r="D102" t="s">
+        <v>22</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
         <v>44</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G102" t="s">
         <v>129</v>
       </c>
-      <c r="H101" t="s">
-        <v>130</v>
-      </c>
-      <c r="I101" t="s">
-        <v>131</v>
-      </c>
-      <c r="J101" t="s">
-        <v>14</v>
-      </c>
-      <c r="K101" t="s">
-        <v>14</v>
-      </c>
-      <c r="L101" t="s">
-        <v>217</v>
+      <c r="H102" t="s">
+        <v>134</v>
+      </c>
+      <c r="I102" t="s">
+        <v>135</v>
+      </c>
+      <c r="J102" t="s">
+        <v>14</v>
+      </c>
+      <c r="K102" t="s">
+        <v>14</v>
+      </c>
+      <c r="L102" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>132</v>
-      </c>
-      <c r="B103" t="s">
-        <v>133</v>
-      </c>
       <c r="D103" t="s">
         <v>22</v>
       </c>
@@ -3545,7 +3574,7 @@
         <v>14</v>
       </c>
       <c r="L103" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -3574,7 +3603,7 @@
         <v>14</v>
       </c>
       <c r="L104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -3603,45 +3632,45 @@
         <v>14</v>
       </c>
       <c r="L105" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D106" t="s">
-        <v>22</v>
-      </c>
-      <c r="E106" t="s">
-        <v>43</v>
-      </c>
-      <c r="F106" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" t="s">
+        <v>137</v>
+      </c>
+      <c r="D107" t="s">
+        <v>22</v>
+      </c>
+      <c r="E107" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" t="s">
         <v>44</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G107" t="s">
         <v>129</v>
       </c>
-      <c r="H106" t="s">
-        <v>134</v>
-      </c>
-      <c r="I106" t="s">
-        <v>135</v>
-      </c>
-      <c r="J106" t="s">
-        <v>14</v>
-      </c>
-      <c r="K106" t="s">
-        <v>14</v>
-      </c>
-      <c r="L106" t="s">
-        <v>217</v>
+      <c r="H107" t="s">
+        <v>138</v>
+      </c>
+      <c r="I107" t="s">
+        <v>139</v>
+      </c>
+      <c r="J107" t="s">
+        <v>140</v>
+      </c>
+      <c r="K107" t="s">
+        <v>14</v>
+      </c>
+      <c r="L107" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>136</v>
-      </c>
-      <c r="B108" t="s">
-        <v>137</v>
-      </c>
       <c r="D108" t="s">
         <v>22</v>
       </c>
@@ -3667,7 +3696,7 @@
         <v>14</v>
       </c>
       <c r="L108" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -3690,13 +3719,13 @@
         <v>139</v>
       </c>
       <c r="J109" t="s">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="K109" t="s">
         <v>14</v>
       </c>
       <c r="L109" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -3719,51 +3748,51 @@
         <v>139</v>
       </c>
       <c r="J110" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="K110" t="s">
         <v>14</v>
       </c>
       <c r="L110" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D111" t="s">
-        <v>22</v>
-      </c>
-      <c r="E111" t="s">
-        <v>43</v>
-      </c>
-      <c r="F111" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" t="s">
+        <v>142</v>
+      </c>
+      <c r="D112" t="s">
+        <v>22</v>
+      </c>
+      <c r="E112" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" t="s">
         <v>44</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G112" t="s">
         <v>129</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H112" t="s">
         <v>138</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I112" t="s">
         <v>139</v>
       </c>
-      <c r="J111" t="s">
-        <v>140</v>
-      </c>
-      <c r="K111" t="s">
-        <v>14</v>
-      </c>
-      <c r="L111" t="s">
-        <v>217</v>
+      <c r="J112" t="s">
+        <v>14</v>
+      </c>
+      <c r="K112" t="s">
+        <v>14</v>
+      </c>
+      <c r="L112" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>141</v>
-      </c>
-      <c r="B113" t="s">
-        <v>142</v>
-      </c>
       <c r="D113" t="s">
         <v>22</v>
       </c>
@@ -3783,13 +3812,13 @@
         <v>139</v>
       </c>
       <c r="J113" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K113" t="s">
         <v>14</v>
       </c>
       <c r="L113" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -3806,19 +3835,19 @@
         <v>129</v>
       </c>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="I114" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="K114" t="s">
         <v>14</v>
       </c>
       <c r="L114" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -3835,10 +3864,10 @@
         <v>129</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="I115" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="J115" t="s">
         <v>14</v>
@@ -3847,105 +3876,105 @@
         <v>14</v>
       </c>
       <c r="L115" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D116" t="s">
-        <v>22</v>
-      </c>
-      <c r="E116" t="s">
-        <v>43</v>
-      </c>
-      <c r="F116" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>144</v>
+      </c>
+      <c r="B117" t="s">
+        <v>145</v>
+      </c>
+      <c r="D117" t="s">
+        <v>22</v>
+      </c>
+      <c r="E117" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" t="s">
         <v>44</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G117" t="s">
         <v>129</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H117" t="s">
         <v>138</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I117" t="s">
         <v>139</v>
       </c>
-      <c r="J116" t="s">
-        <v>14</v>
-      </c>
-      <c r="K116" t="s">
-        <v>14</v>
-      </c>
-      <c r="L116" t="s">
-        <v>217</v>
+      <c r="J117" t="s">
+        <v>146</v>
+      </c>
+      <c r="K117" t="s">
+        <v>14</v>
+      </c>
+      <c r="L117" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>144</v>
-      </c>
-      <c r="B118" t="s">
-        <v>145</v>
-      </c>
       <c r="D118" t="s">
         <v>22</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="G118" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H118" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="I118" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="J118" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K118" t="s">
         <v>14</v>
       </c>
       <c r="L118" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D119" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E119" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="F119" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="G119" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="I119" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="K119" t="s">
         <v>14</v>
       </c>
       <c r="L119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D120" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
@@ -3969,45 +3998,45 @@
         <v>14</v>
       </c>
       <c r="L120" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D121" t="s">
-        <v>22</v>
-      </c>
-      <c r="E121" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s">
-        <v>14</v>
-      </c>
-      <c r="H121" t="s">
-        <v>14</v>
-      </c>
-      <c r="I121" t="s">
-        <v>14</v>
-      </c>
-      <c r="J121" t="s">
-        <v>14</v>
-      </c>
-      <c r="K121" t="s">
-        <v>14</v>
-      </c>
-      <c r="L121" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>149</v>
+      </c>
+      <c r="B122" t="s">
+        <v>150</v>
+      </c>
+      <c r="D122" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" t="s">
+        <v>43</v>
+      </c>
+      <c r="F122" t="s">
+        <v>44</v>
+      </c>
+      <c r="G122" t="s">
+        <v>129</v>
+      </c>
+      <c r="H122" t="s">
+        <v>134</v>
+      </c>
+      <c r="I122" t="s">
+        <v>151</v>
+      </c>
+      <c r="J122" t="s">
+        <v>14</v>
+      </c>
+      <c r="K122" t="s">
+        <v>14</v>
+      </c>
+      <c r="L122" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>149</v>
-      </c>
-      <c r="B123" t="s">
-        <v>150</v>
-      </c>
       <c r="D123" t="s">
         <v>22</v>
       </c>
@@ -4033,7 +4062,7 @@
         <v>14</v>
       </c>
       <c r="L123" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -4062,7 +4091,7 @@
         <v>14</v>
       </c>
       <c r="L124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -4091,45 +4120,45 @@
         <v>14</v>
       </c>
       <c r="L125" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D126" t="s">
-        <v>22</v>
-      </c>
-      <c r="E126" t="s">
-        <v>43</v>
-      </c>
-      <c r="F126" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>152</v>
+      </c>
+      <c r="B127" t="s">
+        <v>153</v>
+      </c>
+      <c r="D127" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" t="s">
+        <v>43</v>
+      </c>
+      <c r="F127" t="s">
         <v>44</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G127" t="s">
         <v>129</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H127" t="s">
         <v>134</v>
       </c>
-      <c r="I126" t="s">
-        <v>151</v>
-      </c>
-      <c r="J126" t="s">
-        <v>14</v>
-      </c>
-      <c r="K126" t="s">
-        <v>14</v>
-      </c>
-      <c r="L126" t="s">
-        <v>217</v>
+      <c r="I127" t="s">
+        <v>154</v>
+      </c>
+      <c r="J127" t="s">
+        <v>14</v>
+      </c>
+      <c r="K127" t="s">
+        <v>14</v>
+      </c>
+      <c r="L127" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>152</v>
-      </c>
-      <c r="B128" t="s">
-        <v>153</v>
-      </c>
       <c r="D128" t="s">
         <v>22</v>
       </c>
@@ -4143,62 +4172,62 @@
         <v>129</v>
       </c>
       <c r="H128" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I128" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="J128" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K128" t="s">
         <v>14</v>
       </c>
       <c r="L128" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D129" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E129" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G129" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="I129" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="J129" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="K129" t="s">
         <v>14</v>
       </c>
       <c r="L129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D130" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E130" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G130" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="H130" t="s">
         <v>14</v>
@@ -4213,45 +4242,45 @@
         <v>14</v>
       </c>
       <c r="L130" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D131" t="s">
-        <v>22</v>
-      </c>
-      <c r="E131" t="s">
-        <v>43</v>
-      </c>
-      <c r="F131" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>155</v>
+      </c>
+      <c r="B132" t="s">
+        <v>156</v>
+      </c>
+      <c r="D132" t="s">
+        <v>22</v>
+      </c>
+      <c r="E132" t="s">
+        <v>43</v>
+      </c>
+      <c r="F132" t="s">
         <v>44</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G132" t="s">
         <v>129</v>
       </c>
-      <c r="H131" t="s">
-        <v>14</v>
-      </c>
-      <c r="I131" t="s">
-        <v>14</v>
-      </c>
-      <c r="J131" t="s">
-        <v>14</v>
-      </c>
-      <c r="K131" t="s">
-        <v>14</v>
-      </c>
-      <c r="L131" t="s">
-        <v>217</v>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+      <c r="J132" t="s">
+        <v>14</v>
+      </c>
+      <c r="K132" t="s">
+        <v>14</v>
+      </c>
+      <c r="L132" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>155</v>
-      </c>
-      <c r="B133" t="s">
-        <v>156</v>
-      </c>
       <c r="D133" t="s">
         <v>22</v>
       </c>
@@ -4262,13 +4291,13 @@
         <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="H133" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="I133" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="J133" t="s">
         <v>14</v>
@@ -4277,27 +4306,27 @@
         <v>14</v>
       </c>
       <c r="L133" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D134" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E134" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G134" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>158</v>
+        <v>14</v>
       </c>
       <c r="I134" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="J134" t="s">
         <v>14</v>
@@ -4306,18 +4335,18 @@
         <v>14</v>
       </c>
       <c r="L134" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D135" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E135" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G135" t="s">
         <v>14</v>
@@ -4335,45 +4364,45 @@
         <v>14</v>
       </c>
       <c r="L135" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D136" t="s">
-        <v>22</v>
-      </c>
-      <c r="E136" t="s">
-        <v>43</v>
-      </c>
-      <c r="F136" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>160</v>
+      </c>
+      <c r="B137" t="s">
+        <v>161</v>
+      </c>
+      <c r="D137" t="s">
+        <v>22</v>
+      </c>
+      <c r="E137" t="s">
+        <v>43</v>
+      </c>
+      <c r="F137" t="s">
         <v>44</v>
       </c>
-      <c r="G136" t="s">
-        <v>14</v>
-      </c>
-      <c r="H136" t="s">
-        <v>14</v>
-      </c>
-      <c r="I136" t="s">
-        <v>14</v>
-      </c>
-      <c r="J136" t="s">
-        <v>14</v>
-      </c>
-      <c r="K136" t="s">
-        <v>14</v>
-      </c>
-      <c r="L136" t="s">
-        <v>217</v>
+      <c r="G137" t="s">
+        <v>129</v>
+      </c>
+      <c r="H137" t="s">
+        <v>134</v>
+      </c>
+      <c r="I137" t="s">
+        <v>162</v>
+      </c>
+      <c r="J137" t="s">
+        <v>14</v>
+      </c>
+      <c r="K137" t="s">
+        <v>14</v>
+      </c>
+      <c r="L137" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>160</v>
-      </c>
-      <c r="B138" t="s">
-        <v>161</v>
-      </c>
       <c r="D138" t="s">
         <v>22</v>
       </c>
@@ -4387,62 +4416,62 @@
         <v>129</v>
       </c>
       <c r="H138" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="I138" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="J138" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="K138" t="s">
         <v>14</v>
       </c>
       <c r="L138" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E139" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F139" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="G139" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="I139" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="J139" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="K139" t="s">
         <v>14</v>
       </c>
       <c r="L139" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D140" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E140" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G140" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="H140" t="s">
         <v>14</v>
@@ -4457,82 +4486,82 @@
         <v>14</v>
       </c>
       <c r="L140" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D141" t="s">
-        <v>22</v>
-      </c>
-      <c r="E141" t="s">
-        <v>43</v>
-      </c>
-      <c r="F141" t="s">
-        <v>44</v>
-      </c>
-      <c r="G141" t="s">
-        <v>129</v>
-      </c>
-      <c r="H141" t="s">
-        <v>14</v>
-      </c>
-      <c r="I141" t="s">
-        <v>14</v>
-      </c>
-      <c r="J141" t="s">
-        <v>14</v>
-      </c>
-      <c r="K141" t="s">
-        <v>14</v>
-      </c>
-      <c r="L141" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>163</v>
+      </c>
+      <c r="B142" t="s">
+        <v>164</v>
+      </c>
+      <c r="D142" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142" t="s">
+        <v>43</v>
+      </c>
+      <c r="F142" t="s">
+        <v>56</v>
+      </c>
+      <c r="G142" t="s">
+        <v>165</v>
+      </c>
+      <c r="H142" t="s">
+        <v>166</v>
+      </c>
+      <c r="I142" t="s">
+        <v>167</v>
+      </c>
+      <c r="J142" t="s">
+        <v>168</v>
+      </c>
+      <c r="K142" t="s">
+        <v>14</v>
+      </c>
+      <c r="L142" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>163</v>
-      </c>
-      <c r="B143" t="s">
-        <v>164</v>
-      </c>
       <c r="D143" t="s">
         <v>22</v>
       </c>
       <c r="E143" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="F143" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="G143" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>166</v>
+        <v>14</v>
       </c>
       <c r="I143" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="J143" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="K143" t="s">
         <v>14</v>
       </c>
       <c r="L143" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>169</v>
+        <v>14</v>
       </c>
       <c r="F144" t="s">
-        <v>170</v>
+        <v>14</v>
       </c>
       <c r="G144" t="s">
         <v>14</v>
@@ -4550,12 +4579,12 @@
         <v>14</v>
       </c>
       <c r="L144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E145" t="s">
         <v>14</v>
@@ -4579,45 +4608,45 @@
         <v>14</v>
       </c>
       <c r="L145" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D146" t="s">
-        <v>22</v>
-      </c>
-      <c r="E146" t="s">
-        <v>14</v>
-      </c>
-      <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>14</v>
-      </c>
-      <c r="H146" t="s">
-        <v>14</v>
-      </c>
-      <c r="I146" t="s">
-        <v>14</v>
-      </c>
-      <c r="J146" t="s">
-        <v>14</v>
-      </c>
-      <c r="K146" t="s">
-        <v>14</v>
-      </c>
-      <c r="L146" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>171</v>
+      </c>
+      <c r="B147" t="s">
+        <v>172</v>
+      </c>
+      <c r="D147" t="s">
+        <v>22</v>
+      </c>
+      <c r="E147" t="s">
+        <v>43</v>
+      </c>
+      <c r="F147" t="s">
+        <v>56</v>
+      </c>
+      <c r="G147" t="s">
+        <v>165</v>
+      </c>
+      <c r="H147" t="s">
+        <v>173</v>
+      </c>
+      <c r="I147" t="s">
+        <v>174</v>
+      </c>
+      <c r="J147" t="s">
+        <v>14</v>
+      </c>
+      <c r="K147" t="s">
+        <v>14</v>
+      </c>
+      <c r="L147" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>171</v>
-      </c>
-      <c r="B148" t="s">
-        <v>172</v>
-      </c>
       <c r="D148" t="s">
         <v>22</v>
       </c>
@@ -4634,16 +4663,16 @@
         <v>173</v>
       </c>
       <c r="I148" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J148" t="s">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="K148" t="s">
         <v>14</v>
       </c>
       <c r="L148" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
@@ -4663,16 +4692,16 @@
         <v>173</v>
       </c>
       <c r="I149" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="J149" t="s">
-        <v>176</v>
+        <v>14</v>
       </c>
       <c r="K149" t="s">
         <v>14</v>
       </c>
       <c r="L149" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
@@ -4701,45 +4730,45 @@
         <v>14</v>
       </c>
       <c r="L150" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D151" t="s">
-        <v>22</v>
-      </c>
-      <c r="E151" t="s">
-        <v>43</v>
-      </c>
-      <c r="F151" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>177</v>
+      </c>
+      <c r="B152" t="s">
+        <v>178</v>
+      </c>
+      <c r="D152" t="s">
+        <v>22</v>
+      </c>
+      <c r="E152" t="s">
+        <v>43</v>
+      </c>
+      <c r="F152" t="s">
         <v>56</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G152" t="s">
         <v>165</v>
       </c>
-      <c r="H151" t="s">
-        <v>173</v>
-      </c>
-      <c r="I151" t="s">
-        <v>14</v>
-      </c>
-      <c r="J151" t="s">
-        <v>14</v>
-      </c>
-      <c r="K151" t="s">
-        <v>14</v>
-      </c>
-      <c r="L151" t="s">
-        <v>217</v>
+      <c r="H152" t="s">
+        <v>166</v>
+      </c>
+      <c r="I152" t="s">
+        <v>167</v>
+      </c>
+      <c r="J152" t="s">
+        <v>179</v>
+      </c>
+      <c r="K152" t="s">
+        <v>14</v>
+      </c>
+      <c r="L152" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>177</v>
-      </c>
-      <c r="B153" t="s">
-        <v>178</v>
-      </c>
       <c r="D153" t="s">
         <v>22</v>
       </c>
@@ -4765,7 +4794,7 @@
         <v>14</v>
       </c>
       <c r="L153" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
@@ -4782,19 +4811,19 @@
         <v>165</v>
       </c>
       <c r="H154" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="I154" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="J154" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="K154" t="s">
         <v>14</v>
       </c>
       <c r="L154" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -4811,100 +4840,100 @@
         <v>165</v>
       </c>
       <c r="H155" t="s">
+        <v>166</v>
+      </c>
+      <c r="I155" t="s">
+        <v>167</v>
+      </c>
+      <c r="J155" t="s">
+        <v>179</v>
+      </c>
+      <c r="K155" t="s">
+        <v>14</v>
+      </c>
+      <c r="L155" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>180</v>
+      </c>
+      <c r="B157" t="s">
+        <v>181</v>
+      </c>
+      <c r="D157" t="s">
+        <v>22</v>
+      </c>
+      <c r="E157" t="s">
+        <v>43</v>
+      </c>
+      <c r="F157" t="s">
+        <v>56</v>
+      </c>
+      <c r="G157" t="s">
+        <v>165</v>
+      </c>
+      <c r="H157" t="s">
         <v>173</v>
       </c>
-      <c r="I155" t="s">
-        <v>14</v>
-      </c>
-      <c r="J155" t="s">
-        <v>14</v>
-      </c>
-      <c r="K155" t="s">
-        <v>14</v>
-      </c>
-      <c r="L155" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D156" t="s">
-        <v>22</v>
-      </c>
-      <c r="E156" t="s">
-        <v>43</v>
-      </c>
-      <c r="F156" t="s">
-        <v>56</v>
-      </c>
-      <c r="G156" t="s">
-        <v>165</v>
-      </c>
-      <c r="H156" t="s">
-        <v>166</v>
-      </c>
-      <c r="I156" t="s">
-        <v>167</v>
-      </c>
-      <c r="J156" t="s">
-        <v>179</v>
-      </c>
-      <c r="K156" t="s">
-        <v>14</v>
-      </c>
-      <c r="L156" t="s">
-        <v>217</v>
+      <c r="I157" t="s">
+        <v>182</v>
+      </c>
+      <c r="J157" t="s">
+        <v>183</v>
+      </c>
+      <c r="K157" t="s">
+        <v>14</v>
+      </c>
+      <c r="L157" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>180</v>
-      </c>
-      <c r="B158" t="s">
-        <v>181</v>
-      </c>
       <c r="D158" t="s">
         <v>22</v>
       </c>
       <c r="E158" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F158" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G158" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="H158" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="I158" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="J158" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="K158" t="s">
         <v>14</v>
       </c>
       <c r="L158" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D159" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E159" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="G159" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="I159" t="s">
         <v>14</v>
@@ -4916,12 +4945,12 @@
         <v>14</v>
       </c>
       <c r="L159" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D160" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E160" t="s">
         <v>14</v>
@@ -4945,45 +4974,45 @@
         <v>14</v>
       </c>
       <c r="L160" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D161" t="s">
-        <v>22</v>
-      </c>
-      <c r="E161" t="s">
-        <v>14</v>
-      </c>
-      <c r="F161" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" t="s">
-        <v>14</v>
-      </c>
-      <c r="H161" t="s">
-        <v>14</v>
-      </c>
-      <c r="I161" t="s">
-        <v>14</v>
-      </c>
-      <c r="J161" t="s">
-        <v>14</v>
-      </c>
-      <c r="K161" t="s">
-        <v>14</v>
-      </c>
-      <c r="L161" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>184</v>
+      </c>
+      <c r="B162" t="s">
+        <v>185</v>
+      </c>
+      <c r="D162" t="s">
+        <v>22</v>
+      </c>
+      <c r="E162" t="s">
+        <v>43</v>
+      </c>
+      <c r="F162" t="s">
+        <v>56</v>
+      </c>
+      <c r="G162" t="s">
+        <v>165</v>
+      </c>
+      <c r="H162" t="s">
+        <v>173</v>
+      </c>
+      <c r="I162" t="s">
+        <v>182</v>
+      </c>
+      <c r="J162" t="s">
+        <v>186</v>
+      </c>
+      <c r="K162" t="s">
+        <v>14</v>
+      </c>
+      <c r="L162" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>184</v>
-      </c>
-      <c r="B163" t="s">
-        <v>185</v>
-      </c>
       <c r="D163" t="s">
         <v>22</v>
       </c>
@@ -4994,22 +5023,22 @@
         <v>56</v>
       </c>
       <c r="G163" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="H163" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="I163" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="J163" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K163" t="s">
         <v>14</v>
       </c>
       <c r="L163" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
@@ -5023,22 +5052,22 @@
         <v>56</v>
       </c>
       <c r="G164" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="H164" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="I164" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="J164" t="s">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="K164" t="s">
         <v>14</v>
       </c>
       <c r="L164" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -5067,105 +5096,105 @@
         <v>14</v>
       </c>
       <c r="L165" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D166" t="s">
-        <v>22</v>
-      </c>
-      <c r="E166" t="s">
-        <v>43</v>
-      </c>
-      <c r="F166" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>191</v>
+      </c>
+      <c r="B167" t="s">
+        <v>192</v>
+      </c>
+      <c r="D167" t="s">
+        <v>22</v>
+      </c>
+      <c r="E167" t="s">
+        <v>43</v>
+      </c>
+      <c r="F167" t="s">
         <v>56</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G167" t="s">
         <v>165</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H167" t="s">
         <v>173</v>
       </c>
-      <c r="I166" t="s">
+      <c r="I167" t="s">
         <v>182</v>
       </c>
-      <c r="J166" t="s">
-        <v>14</v>
-      </c>
-      <c r="K166" t="s">
-        <v>14</v>
-      </c>
-      <c r="L166" t="s">
-        <v>217</v>
+      <c r="J167" t="s">
+        <v>193</v>
+      </c>
+      <c r="K167" t="s">
+        <v>14</v>
+      </c>
+      <c r="L167" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>191</v>
-      </c>
-      <c r="B168" t="s">
-        <v>192</v>
-      </c>
       <c r="D168" t="s">
         <v>22</v>
       </c>
       <c r="E168" t="s">
-        <v>43</v>
+        <v>194</v>
       </c>
       <c r="F168" t="s">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="G168" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="H168" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="I168" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="J168" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K168" t="s">
         <v>14</v>
       </c>
       <c r="L168" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D169" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E169" t="s">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>195</v>
+        <v>14</v>
       </c>
       <c r="G169" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="I169" t="s">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="J169" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="K169" t="s">
         <v>14</v>
       </c>
       <c r="L169" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D170" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E170" t="s">
         <v>14</v>
@@ -5189,71 +5218,71 @@
         <v>14</v>
       </c>
       <c r="L170" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D171" t="s">
-        <v>22</v>
-      </c>
-      <c r="E171" t="s">
-        <v>14</v>
-      </c>
-      <c r="F171" t="s">
-        <v>14</v>
-      </c>
-      <c r="G171" t="s">
-        <v>14</v>
-      </c>
-      <c r="H171" t="s">
-        <v>14</v>
-      </c>
-      <c r="I171" t="s">
-        <v>14</v>
-      </c>
-      <c r="J171" t="s">
-        <v>14</v>
-      </c>
-      <c r="K171" t="s">
-        <v>14</v>
-      </c>
-      <c r="L171" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>200</v>
+      </c>
+      <c r="B172" t="s">
+        <v>201</v>
+      </c>
+      <c r="D172" t="s">
+        <v>22</v>
+      </c>
+      <c r="E172" t="s">
+        <v>43</v>
+      </c>
+      <c r="F172" t="s">
+        <v>56</v>
+      </c>
+      <c r="G172" t="s">
+        <v>165</v>
+      </c>
+      <c r="H172" t="s">
+        <v>173</v>
+      </c>
+      <c r="I172" t="s">
+        <v>182</v>
+      </c>
+      <c r="J172" t="s">
+        <v>202</v>
+      </c>
+      <c r="K172" t="s">
+        <v>14</v>
+      </c>
+      <c r="L172" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>200</v>
-      </c>
-      <c r="B173" t="s">
-        <v>201</v>
-      </c>
       <c r="D173" t="s">
         <v>22</v>
       </c>
       <c r="E173" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F173" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="G173" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="H173" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="I173" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="J173" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K173" t="s">
         <v>14</v>
       </c>
       <c r="L173" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
@@ -5282,7 +5311,7 @@
         <v>14</v>
       </c>
       <c r="L174" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
@@ -5311,45 +5340,45 @@
         <v>14</v>
       </c>
       <c r="L175" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D176" t="s">
-        <v>22</v>
-      </c>
-      <c r="E176" t="s">
-        <v>68</v>
-      </c>
-      <c r="F176" t="s">
-        <v>85</v>
-      </c>
-      <c r="G176" t="s">
-        <v>86</v>
-      </c>
-      <c r="H176" t="s">
-        <v>203</v>
-      </c>
-      <c r="I176" t="s">
-        <v>204</v>
-      </c>
-      <c r="J176" t="s">
-        <v>205</v>
-      </c>
-      <c r="K176" t="s">
-        <v>14</v>
-      </c>
-      <c r="L176" t="s">
         <v>217</v>
       </c>
     </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>206</v>
+      </c>
+      <c r="B177" t="s">
+        <v>207</v>
+      </c>
+      <c r="D177" t="s">
+        <v>22</v>
+      </c>
+      <c r="E177" t="s">
+        <v>43</v>
+      </c>
+      <c r="F177" t="s">
+        <v>56</v>
+      </c>
+      <c r="G177" t="s">
+        <v>165</v>
+      </c>
+      <c r="H177" t="s">
+        <v>173</v>
+      </c>
+      <c r="I177" t="s">
+        <v>182</v>
+      </c>
+      <c r="J177" t="s">
+        <v>208</v>
+      </c>
+      <c r="K177" t="s">
+        <v>14</v>
+      </c>
+      <c r="L177" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>206</v>
-      </c>
-      <c r="B178" t="s">
-        <v>207</v>
-      </c>
       <c r="D178" t="s">
         <v>22</v>
       </c>
@@ -5375,7 +5404,7 @@
         <v>14</v>
       </c>
       <c r="L178" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -5383,28 +5412,28 @@
         <v>22</v>
       </c>
       <c r="E179" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="F179" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G179" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="I179" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="J179" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="K179" t="s">
         <v>14</v>
       </c>
       <c r="L179" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -5412,66 +5441,66 @@
         <v>22</v>
       </c>
       <c r="E180" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="G180" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="H180" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="I180" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="J180" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="K180" t="s">
         <v>14</v>
       </c>
       <c r="L180" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D181" t="s">
-        <v>22</v>
-      </c>
-      <c r="E181" t="s">
-        <v>43</v>
-      </c>
-      <c r="F181" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>209</v>
+      </c>
+      <c r="B182" t="s">
+        <v>210</v>
+      </c>
+      <c r="D182" t="s">
+        <v>22</v>
+      </c>
+      <c r="E182" t="s">
+        <v>43</v>
+      </c>
+      <c r="F182" t="s">
         <v>56</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G182" t="s">
         <v>165</v>
       </c>
-      <c r="H181" t="s">
+      <c r="H182" t="s">
         <v>173</v>
       </c>
-      <c r="I181" t="s">
+      <c r="I182" t="s">
         <v>182</v>
       </c>
-      <c r="J181" t="s">
-        <v>208</v>
-      </c>
-      <c r="K181" t="s">
-        <v>14</v>
-      </c>
-      <c r="L181" t="s">
-        <v>217</v>
+      <c r="J182" t="s">
+        <v>212</v>
+      </c>
+      <c r="K182" t="s">
+        <v>14</v>
+      </c>
+      <c r="L182" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>209</v>
-      </c>
-      <c r="B183" t="s">
-        <v>210</v>
-      </c>
       <c r="D183" t="s">
         <v>22</v>
       </c>
@@ -5491,13 +5520,13 @@
         <v>182</v>
       </c>
       <c r="J183" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K183" t="s">
         <v>14</v>
       </c>
       <c r="L183" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -5517,16 +5546,16 @@
         <v>173</v>
       </c>
       <c r="I184" t="s">
-        <v>182</v>
+        <v>14</v>
       </c>
       <c r="J184" t="s">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="K184" t="s">
         <v>14</v>
       </c>
       <c r="L184" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -5546,7 +5575,7 @@
         <v>173</v>
       </c>
       <c r="I185" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="J185" t="s">
         <v>14</v>
@@ -5555,45 +5584,45 @@
         <v>14</v>
       </c>
       <c r="L185" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D186" t="s">
-        <v>22</v>
-      </c>
-      <c r="E186" t="s">
-        <v>43</v>
-      </c>
-      <c r="F186" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>213</v>
+      </c>
+      <c r="B187" t="s">
+        <v>214</v>
+      </c>
+      <c r="D187" t="s">
+        <v>22</v>
+      </c>
+      <c r="E187" t="s">
+        <v>43</v>
+      </c>
+      <c r="F187" t="s">
         <v>56</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G187" t="s">
         <v>165</v>
       </c>
-      <c r="H186" t="s">
+      <c r="H187" t="s">
         <v>173</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I187" t="s">
         <v>182</v>
       </c>
-      <c r="J186" t="s">
-        <v>14</v>
-      </c>
-      <c r="K186" t="s">
-        <v>14</v>
-      </c>
-      <c r="L186" t="s">
-        <v>217</v>
+      <c r="J187" t="s">
+        <v>215</v>
+      </c>
+      <c r="K187" t="s">
+        <v>14</v>
+      </c>
+      <c r="L187" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>213</v>
-      </c>
-      <c r="B188" t="s">
-        <v>214</v>
-      </c>
       <c r="D188" t="s">
         <v>22</v>
       </c>
@@ -5613,13 +5642,13 @@
         <v>182</v>
       </c>
       <c r="J188" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K188" t="s">
         <v>14</v>
       </c>
       <c r="L188" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -5642,13 +5671,13 @@
         <v>182</v>
       </c>
       <c r="J189" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="K189" t="s">
         <v>14</v>
       </c>
       <c r="L189" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -5677,35 +5706,6 @@
         <v>14</v>
       </c>
       <c r="L190" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D191" t="s">
-        <v>22</v>
-      </c>
-      <c r="E191" t="s">
-        <v>43</v>
-      </c>
-      <c r="F191" t="s">
-        <v>56</v>
-      </c>
-      <c r="G191" t="s">
-        <v>165</v>
-      </c>
-      <c r="H191" t="s">
-        <v>173</v>
-      </c>
-      <c r="I191" t="s">
-        <v>182</v>
-      </c>
-      <c r="J191" t="s">
-        <v>14</v>
-      </c>
-      <c r="K191" t="s">
-        <v>14</v>
-      </c>
-      <c r="L191" t="s">
         <v>217</v>
       </c>
     </row>
